--- a/sle/SLE_GO_results.xlsx
+++ b/sle/SLE_GO_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +432,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7/10</t>
+          <t>14/29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -441,30 +441,30 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.021875</v>
+        <v>0.04375</v>
       </c>
       <c r="F2">
-        <v>41.531875</v>
+        <v>28.6426724137931</v>
       </c>
       <c r="G2">
-        <v>16.78606953955563</v>
+        <v>19.50513138939666</v>
       </c>
       <c r="H2">
-        <v>4.159556901662823E-11</v>
+        <v>6.94494139444057E-18</v>
       </c>
       <c r="I2">
-        <v>1.368494220647069E-08</v>
+        <v>3.490401746081652E-15</v>
       </c>
       <c r="J2">
-        <v>7.005569518590017E-09</v>
+        <v>2.438038586834418E-15</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>IFI44L/MX1/PARP9/DTX3L/USP18/RSAD2/NLRC5</t>
+          <t>IFI44L/MX1/PARP9/DTX3L/DDX60/USP18/IRF7/IFIT3/PLSCR1/RSAD2/NLRC5/IFIT1/IFITM1/STAT1</t>
         </is>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7/10</t>
+          <t>15/29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -489,318 +489,318 @@
         </is>
       </c>
       <c r="E3">
-        <v>0.01647058823529412</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="F3">
-        <v>31.27105882352942</v>
+        <v>23.10669371196755</v>
       </c>
       <c r="G3">
-        <v>14.48853107372735</v>
+        <v>18.02756493008258</v>
       </c>
       <c r="H3">
-        <v>3.036923108151105E-10</v>
+        <v>8.098379921303136E-18</v>
       </c>
       <c r="I3">
-        <v>4.995738512908567E-08</v>
+        <v>3.490401746081652E-15</v>
       </c>
       <c r="J3">
-        <v>2.557408933179878E-08</v>
+        <v>2.438038586834418E-15</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>IFI44L/MX1/PARP9/DTX3L/USP18/RSAD2/NLRC5</t>
+          <t>IFI44L/MX1/PARP9/DTX3L/DDX60/USP18/IRF7/IFIT3/IFI44/PLSCR1/RSAD2/NLRC5/IFIT1/IFITM1/STAT1</t>
         </is>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GO:0035561</t>
+          <t>GO:0034340</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>regulation of chromatin binding</t>
+          <t>response to type I interferon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>8/29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10/18986</t>
+          <t>92/18986</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.2</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="F4">
-        <v>379.72</v>
+        <v>56.92953523238381</v>
       </c>
       <c r="G4">
-        <v>27.49912465105592</v>
+        <v>21.03258550806643</v>
       </c>
       <c r="H4">
-        <v>1.121075117458784E-05</v>
+        <v>8.795811942135491E-13</v>
       </c>
       <c r="I4">
-        <v>0.001057458266202085</v>
+        <v>2.527329964706931E-10</v>
       </c>
       <c r="J4">
-        <v>0.0005413320191724003</v>
+        <v>1.765334888035614E-10</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>MX1/USP18/IRF7/NLRC5/IFIT1/IFITM1/STAT1/HDAC4</t>
         </is>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GO:0034340</t>
+          <t>GO:0140888</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>response to type I interferon</t>
+          <t>interferon-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>8/29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92/18986</t>
+          <t>112/18986</t>
         </is>
       </c>
       <c r="E5">
-        <v>0.03260869565217391</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F5">
-        <v>61.91086956521739</v>
+        <v>46.76354679802956</v>
       </c>
       <c r="G5">
-        <v>13.44403772937047</v>
+        <v>18.99836410510654</v>
       </c>
       <c r="H5">
-        <v>1.289195502589106E-05</v>
+        <v>4.405367305125871E-12</v>
       </c>
       <c r="I5">
-        <v>0.001057458266202085</v>
+        <v>9.493566542546253E-10</v>
       </c>
       <c r="J5">
-        <v>0.0005413320191724003</v>
+        <v>6.631237101399996E-10</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>MX1/USP18/NLRC5</t>
+          <t>PARP9/USP18/IRF7/PARP14/NLRC5/IFITM1/STAT1/HDAC4</t>
         </is>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GO:0048525</t>
+          <t>GO:0071357</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>negative regulation of viral process</t>
+          <t>cellular response to type I interferon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>7/29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99/18986</t>
+          <t>86/18986</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.0303030303030303</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="F6">
-        <v>57.53333333333334</v>
+        <v>53.2886928628709</v>
       </c>
       <c r="G6">
-        <v>12.94624034105714</v>
+        <v>19.00840179676103</v>
       </c>
       <c r="H6">
-        <v>1.607079431918063E-05</v>
+        <v>4.391298127005936E-11</v>
       </c>
       <c r="I6">
-        <v>0.001057458266202085</v>
+        <v>7.570597970958233E-09</v>
       </c>
       <c r="J6">
-        <v>0.0005413320191724003</v>
+        <v>5.288047428731359E-09</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>MX1/LY6E/RSAD2</t>
+          <t>USP18/IRF7/NLRC5/IFIT1/IFITM1/STAT1/HDAC4</t>
         </is>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GO:0140888</t>
+          <t>GO:0048525</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>interferon-mediated signaling pathway</t>
+          <t>negative regulation of viral process</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>7/29</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>112/18986</t>
+          <t>99/18986</t>
         </is>
       </c>
       <c r="E7">
-        <v>0.02678571428571428</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="F7">
-        <v>50.85535714285714</v>
+        <v>46.2911877394636</v>
       </c>
       <c r="G7">
-        <v>12.14763775193699</v>
+        <v>17.67133303834172</v>
       </c>
       <c r="H7">
-        <v>2.326872654532418E-05</v>
+        <v>1.200670081116007E-10</v>
       </c>
       <c r="I7">
-        <v>0.001074254663131334</v>
+        <v>1.724962683203331E-08</v>
       </c>
       <c r="J7">
-        <v>0.0005499303986594577</v>
+        <v>1.204882958593607E-08</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>PARP9/USP18/NLRC5</t>
+          <t>MX1/LY6E/PLSCR1/RSAD2/IFIT1/IFITM1/STAT1</t>
         </is>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GO:0060330</t>
+          <t>GO:0050792</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>regulation of response to type II interferon</t>
+          <t>regulation of viral process</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>8/29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15/18986</t>
+          <t>173/18986</t>
         </is>
       </c>
       <c r="E8">
-        <v>0.1333333333333333</v>
+        <v>0.04624277456647399</v>
       </c>
       <c r="F8">
-        <v>253.1466666666667</v>
+        <v>30.27466613514052</v>
       </c>
       <c r="G8">
-        <v>22.42625281103162</v>
+        <v>15.12883440596675</v>
       </c>
       <c r="H8">
-        <v>2.612169393632424E-05</v>
+        <v>1.472877434461859E-10</v>
       </c>
       <c r="I8">
-        <v>0.001074254663131334</v>
+        <v>1.813743355008746E-08</v>
       </c>
       <c r="J8">
-        <v>0.0005499303986594577</v>
+        <v>1.266896078965689E-08</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>PARP9/NLRC5</t>
+          <t>MX1/LY6E/PLSCR1/RSAD2/IFIT1/IFITM1/STAT1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GO:0060334</t>
+          <t>GO:0016032</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>regulation of type II interferon-mediated signaling pathway</t>
+          <t>viral process</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>10/29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15/18986</t>
+          <t>452/18986</t>
         </is>
       </c>
       <c r="E9">
-        <v>0.1333333333333333</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="F9">
-        <v>253.1466666666667</v>
+        <v>14.48428440646933</v>
       </c>
       <c r="G9">
-        <v>22.42625281103162</v>
+        <v>11.34833210175251</v>
       </c>
       <c r="H9">
-        <v>2.612169393632424E-05</v>
+        <v>7.076684241309513E-10</v>
       </c>
       <c r="I9">
-        <v>0.001074254663131334</v>
+        <v>7.625127270011001E-08</v>
       </c>
       <c r="J9">
-        <v>0.0005499303986594577</v>
+        <v>5.326136034248739E-08</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>PARP9/NLRC5</t>
+          <t>MX1/PARP9/IRF7/LY6E/PLSCR1/RSAD2/IFIT1/IFITM1/STAT1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -816,7 +816,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>7/29</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -825,170 +825,170 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.02054794520547945</v>
+        <v>0.04794520547945205</v>
       </c>
       <c r="F10">
-        <v>39.01232876712329</v>
+        <v>31.38923004251299</v>
       </c>
       <c r="G10">
-        <v>10.58433118123369</v>
+        <v>14.41700901479846</v>
       </c>
       <c r="H10">
-        <v>5.138375905227829E-05</v>
+        <v>1.864031566058236E-09</v>
       </c>
       <c r="I10">
-        <v>0.00187836185868884</v>
+        <v>1.785328011046888E-07</v>
       </c>
       <c r="J10">
-        <v>0.000961567420861348</v>
+        <v>1.247048018462352E-07</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>MX1/LY6E/RSAD2</t>
+          <t>MX1/LY6E/PLSCR1/RSAD2/IFIT1/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GO:0016032</t>
+          <t>GO:0060337</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>viral process</t>
+          <t>type I interferon-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>6/29</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>452/18986</t>
+          <t>85/18986</t>
         </is>
       </c>
       <c r="E11">
-        <v>0.008849557522123894</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="F11">
-        <v>16.80176991150443</v>
+        <v>46.2133874239351</v>
       </c>
       <c r="G11">
-        <v>7.805367158031097</v>
+        <v>16.34005870153367</v>
       </c>
       <c r="H11">
-        <v>5.940487640353902E-05</v>
+        <v>2.943949955489091E-09</v>
       </c>
       <c r="I11">
-        <v>0.001896221288731575</v>
+        <v>2.537684861631597E-07</v>
       </c>
       <c r="J11">
-        <v>0.0009707099862327689</v>
+        <v>1.772567762673432E-07</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>MX1/PARP9/LY6E/RSAD2</t>
+          <t>USP18/IRF7/NLRC5/IFITM1/STAT1/HDAC4</t>
         </is>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GO:0060339</t>
+          <t>GO:0045071</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>negative regulation of type I interferon-mediated signaling pathway</t>
+          <t>negative regulation of viral genome replication</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24/18986</t>
+          <t>55/18986</t>
         </is>
       </c>
       <c r="E12">
-        <v>0.08333333333333333</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F12">
-        <v>158.2166666666666</v>
+        <v>59.51724137931034</v>
       </c>
       <c r="G12">
-        <v>17.69151800196611</v>
+        <v>16.99800317672259</v>
       </c>
       <c r="H12">
-        <v>6.848931059704694E-05</v>
+        <v>1.907296598241734E-08</v>
       </c>
       <c r="I12">
-        <v>0.001896221288731575</v>
+        <v>1.494626970622159E-06</v>
       </c>
       <c r="J12">
-        <v>0.0009707099862327689</v>
+        <v>1.043993927458633E-06</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>MX1/PLSCR1/RSAD2/IFIT1/IFITM1</t>
         </is>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GO:0045088</t>
+          <t>GO:0060333</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>regulation of innate immune response</t>
+          <t>type II interferon-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>470/18986</t>
+          <t>27/18986</t>
         </is>
       </c>
       <c r="E13">
-        <v>0.008510638297872341</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="F13">
-        <v>16.15829787234043</v>
+        <v>96.99106002554278</v>
       </c>
       <c r="G13">
-        <v>7.63886341596999</v>
+        <v>19.52200641007528</v>
       </c>
       <c r="H13">
-        <v>6.916308651908479E-05</v>
+        <v>7.516983789761088E-08</v>
       </c>
       <c r="I13">
-        <v>0.001896221288731575</v>
+        <v>5.399700022311715E-06</v>
       </c>
       <c r="J13">
-        <v>0.0009707099862327689</v>
+        <v>3.771679585739774E-06</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>PARP9/USP18/RSAD2/NLRC5</t>
+          <t>PARP9/PARP14/NLRC5/STAT1</t>
         </is>
       </c>
       <c r="L13">
@@ -998,813 +998,813 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GO:0050792</t>
+          <t>GO:0045069</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>regulation of viral process</t>
+          <t>regulation of viral genome replication</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>173/18986</t>
+          <t>85/18986</t>
         </is>
       </c>
       <c r="E14">
-        <v>0.01734104046242774</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F14">
-        <v>32.92369942196531</v>
+        <v>38.51115618661257</v>
       </c>
       <c r="G14">
-        <v>9.683006017883699</v>
+        <v>13.55648247065806</v>
       </c>
       <c r="H14">
-        <v>8.512513785093031E-05</v>
+        <v>1.742364463608457E-07</v>
       </c>
       <c r="I14">
-        <v>0.002045137789990575</v>
+        <v>1.155321667408069E-05</v>
       </c>
       <c r="J14">
-        <v>0.00104694303758916</v>
+        <v>8.069898568291799E-06</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>MX1/LY6E/RSAD2</t>
+          <t>MX1/PLSCR1/RSAD2/IFIT1/IFITM1</t>
         </is>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GO:0060333</t>
+          <t>GO:0045088</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>type II interferon-mediated signaling pathway</t>
+          <t>regulation of innate immune response</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>8/29</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>27/18986</t>
+          <t>470/18986</t>
         </is>
       </c>
       <c r="E15">
-        <v>0.07407407407407407</v>
+        <v>0.01702127659574468</v>
       </c>
       <c r="F15">
-        <v>140.637037037037</v>
+        <v>11.14365370506236</v>
       </c>
       <c r="G15">
-        <v>16.66777996552871</v>
+        <v>8.70942035329978</v>
       </c>
       <c r="H15">
-        <v>8.702713999959896E-05</v>
+        <v>3.610564623238699E-07</v>
       </c>
       <c r="I15">
-        <v>0.002045137789990575</v>
+        <v>2.223076218022685E-05</v>
       </c>
       <c r="J15">
-        <v>0.00104694303758916</v>
+        <v>1.552814259016944E-05</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>PARP9/NLRC5</t>
+          <t>PARP9/DDX60/USP18/IRF7/PARP14/PLSCR1/RSAD2/NLRC5</t>
         </is>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GO:0001959</t>
+          <t>GO:0019058</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>regulation of cytokine-mediated signaling pathway</t>
+          <t>viral life cycle</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>7/29</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>187/18986</t>
+          <t>323/18986</t>
         </is>
       </c>
       <c r="E16">
-        <v>0.0160427807486631</v>
+        <v>0.021671826625387</v>
       </c>
       <c r="F16">
-        <v>30.45882352941177</v>
+        <v>14.18832070033095</v>
       </c>
       <c r="G16">
-        <v>9.293339289497814</v>
+        <v>9.350170431716155</v>
       </c>
       <c r="H16">
-        <v>0.0001072320666227488</v>
+        <v>4.373638659780094E-07</v>
       </c>
       <c r="I16">
-        <v>0.002351956661258957</v>
+        <v>2.513384349820294E-05</v>
       </c>
       <c r="J16">
-        <v>0.00120400916909753</v>
+        <v>1.75559390413629E-05</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>PARP9/USP18/NLRC5</t>
+          <t>MX1/LY6E/PLSCR1/RSAD2/IFIT1/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GO:0060759</t>
+          <t>GO:0034341</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>regulation of response to cytokine stimulus</t>
+          <t>response to type II interferon</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>199/18986</t>
+          <t>121/18986</t>
         </is>
       </c>
       <c r="E17">
-        <v>0.01507537688442211</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="F17">
-        <v>28.62211055276382</v>
+        <v>27.05329153605016</v>
       </c>
       <c r="G17">
-        <v>8.99202787525115</v>
+        <v>11.24466118832307</v>
       </c>
       <c r="H17">
-        <v>0.0001289243445888699</v>
+        <v>1.016574583133171E-06</v>
       </c>
       <c r="I17">
-        <v>0.002529276125821909</v>
+        <v>5.476795566629961E-05</v>
       </c>
       <c r="J17">
-        <v>0.001294782211267015</v>
+        <v>3.825530668106408E-05</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>PARP9/USP18/NLRC5</t>
+          <t>PARP9/PARP14/NLRC5/IFITM1/STAT1</t>
         </is>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GO:0002230</t>
+          <t>GO:0060330</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>positive regulation of defense response to virus by host</t>
+          <t>regulation of response to type II interferon</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33/18986</t>
+          <t>15/18986</t>
         </is>
       </c>
       <c r="E18">
-        <v>0.06060606060606061</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
-        <v>115.0666666666667</v>
+        <v>130.9379310344828</v>
       </c>
       <c r="G18">
-        <v>15.05496339919603</v>
+        <v>19.69046441749165</v>
       </c>
       <c r="H18">
-        <v>0.0001306920794497643</v>
+        <v>1.439938512010867E-06</v>
       </c>
       <c r="I18">
-        <v>0.002529276125821909</v>
+        <v>6.57810736990719E-05</v>
       </c>
       <c r="J18">
-        <v>0.001294782211267015</v>
+        <v>4.594794743664564E-05</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>PARP9/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GO:0050691</t>
+          <t>GO:0060334</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>regulation of defense response to virus by host</t>
+          <t>regulation of type II interferon-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45/18986</t>
+          <t>15/18986</t>
         </is>
       </c>
       <c r="E19">
-        <v>0.04444444444444445</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
-        <v>84.38222222222223</v>
+        <v>130.9379310344828</v>
       </c>
       <c r="G19">
-        <v>12.85527096195169</v>
+        <v>19.69046441749165</v>
       </c>
       <c r="H19">
-        <v>0.0002442226762335329</v>
+        <v>1.439938512010867E-06</v>
       </c>
       <c r="I19">
-        <v>0.004228908446359596</v>
+        <v>6.57810736990719E-05</v>
       </c>
       <c r="J19">
-        <v>0.002164854747776469</v>
+        <v>4.594794743664564E-05</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>PARP9/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GO:0060338</t>
+          <t>GO:0019079</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>regulation of type I interferon-mediated signaling pathway</t>
+          <t>viral genome replication</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45/18986</t>
+          <t>130/18986</t>
         </is>
       </c>
       <c r="E20">
-        <v>0.04444444444444445</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F20">
-        <v>84.38222222222223</v>
+        <v>25.18037135278515</v>
       </c>
       <c r="G20">
-        <v>12.85527096195169</v>
+        <v>10.82005210950995</v>
       </c>
       <c r="H20">
-        <v>0.0002442226762335329</v>
+        <v>1.449930858796248E-06</v>
       </c>
       <c r="I20">
-        <v>0.004228908446359596</v>
+        <v>6.57810736990719E-05</v>
       </c>
       <c r="J20">
-        <v>0.002164854747776469</v>
+        <v>4.594794743664564E-05</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>MX1/PLSCR1/RSAD2/IFIT1/IFITM1</t>
         </is>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GO:0045071</t>
+          <t>GO:0140374</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>negative regulation of viral genome replication</t>
+          <t>antiviral innate immune response</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>55/18986</t>
+          <t>59/18986</t>
         </is>
       </c>
       <c r="E21">
-        <v>0.03636363636363636</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="F21">
-        <v>69.03999999999999</v>
+        <v>44.38573933372297</v>
       </c>
       <c r="G21">
-        <v>11.60010277016655</v>
+        <v>13.05424057640745</v>
       </c>
       <c r="H21">
-        <v>0.0003653059344631538</v>
+        <v>1.884724566171942E-06</v>
       </c>
       <c r="I21">
-        <v>0.00600928262191888</v>
+        <v>8.12316288020107E-05</v>
       </c>
       <c r="J21">
-        <v>0.003076260500742348</v>
+        <v>5.67401290447553E-05</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>MX1/RSAD2</t>
+          <t>MX1/USP18/IFIT3/IFIT1</t>
         </is>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GO:0140374</t>
+          <t>GO:0001961</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>antiviral innate immune response</t>
+          <t>positive regulation of cytokine-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>59/18986</t>
+          <t>61/18986</t>
         </is>
       </c>
       <c r="E22">
-        <v>0.03389830508474576</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="F22">
-        <v>64.35932203389831</v>
+        <v>42.93046919163369</v>
       </c>
       <c r="G22">
-        <v>11.18918877977583</v>
+        <v>12.82909999309582</v>
       </c>
       <c r="H22">
-        <v>0.0004204284167161919</v>
+        <v>2.156504980207811E-06</v>
       </c>
       <c r="I22">
-        <v>0.006586711861887006</v>
+        <v>8.851939490186347E-05</v>
       </c>
       <c r="J22">
-        <v>0.003371856976169959</v>
+        <v>6.183061898139687E-05</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>MX1/USP18</t>
+          <t>PARP9/IRF7/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GO:0001961</t>
+          <t>GO:0002833</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>positive regulation of cytokine-mediated signaling pathway</t>
+          <t>positive regulation of response to biotic stimulus</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>7/29</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>61/18986</t>
+          <t>416/18986</t>
         </is>
       </c>
       <c r="E23">
-        <v>0.03278688524590164</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="F23">
-        <v>62.24918032786885</v>
+        <v>11.0164124668435</v>
       </c>
       <c r="G23">
-        <v>10.99892446158291</v>
+        <v>8.079275323842541</v>
       </c>
       <c r="H23">
-        <v>0.0004494165162971545</v>
+        <v>2.371546377895376E-06</v>
       </c>
       <c r="I23">
-        <v>0.006720819720989265</v>
+        <v>9.292149898844608E-05</v>
       </c>
       <c r="J23">
-        <v>0.003440509215671996</v>
+        <v>6.490547981608396E-05</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>PARP9/NLRC5</t>
+          <t>PARP9/DDX60/IRF7/PLSCR1/RSAD2/NLRC5/HLA-DRB1</t>
         </is>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GO:0050688</t>
+          <t>GO:0060760</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>regulation of defense response to virus</t>
+          <t>positive regulation of response to cytokine stimulus</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>66/18986</t>
+          <t>68/18986</t>
         </is>
       </c>
       <c r="E24">
-        <v>0.0303030303030303</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F24">
-        <v>57.53333333333334</v>
+        <v>38.51115618661257</v>
       </c>
       <c r="G24">
-        <v>10.56133843865454</v>
+        <v>12.11983732897166</v>
       </c>
       <c r="H24">
-        <v>0.0005260353659284737</v>
+        <v>3.340609381768097E-06</v>
       </c>
       <c r="I24">
-        <v>0.007343660985078881</v>
+        <v>0.0001252002298732217</v>
       </c>
       <c r="J24">
-        <v>0.003759352927891924</v>
+        <v>8.745210830074834E-05</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>PARP9/IRF7/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GO:0019058</t>
+          <t>GO:0001959</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>viral life cycle</t>
+          <t>regulation of cytokine-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>323/18986</t>
+          <t>187/18986</t>
         </is>
       </c>
       <c r="E25">
-        <v>0.009287925696594427</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="F25">
-        <v>17.63405572755418</v>
+        <v>17.50507099391481</v>
       </c>
       <c r="G25">
-        <v>6.92168211720727</v>
+        <v>8.871362398319604</v>
       </c>
       <c r="H25">
-        <v>0.0005357077922245992</v>
+        <v>8.611338288189205E-06</v>
       </c>
       <c r="I25">
-        <v>0.007343660985078881</v>
+        <v>0.0003092905668507956</v>
       </c>
       <c r="J25">
-        <v>0.003759352927891924</v>
+        <v>0.0002160388377563257</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>MX1/LY6E/RSAD2</t>
+          <t>PARP9/USP18/IRF7/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GO:0060760</t>
+          <t>GO:0060759</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>positive regulation of response to cytokine stimulus</t>
+          <t>regulation of response to cytokine stimulus</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>68/18986</t>
+          <t>199/18986</t>
         </is>
       </c>
       <c r="E26">
-        <v>0.02941176470588235</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="F26">
-        <v>55.84117647058823</v>
+        <v>16.44948882342748</v>
       </c>
       <c r="G26">
-        <v>10.39983798207325</v>
+        <v>8.569025390679796</v>
       </c>
       <c r="H26">
-        <v>0.0005583380764051997</v>
+        <v>1.164238282831362E-05</v>
       </c>
       <c r="I26">
-        <v>0.007347729085492428</v>
+        <v>0.0004014293599202536</v>
       </c>
       <c r="J26">
-        <v>0.003761435462098187</v>
+        <v>0.000280397599065069</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>PARP9/NLRC5</t>
+          <t>PARP9/USP18/IRF7/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GO:0045069</t>
+          <t>GO:0051701</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>regulation of viral genome replication</t>
+          <t>biological process involved in interaction with host</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>85/18986</t>
+          <t>204/18986</t>
         </is>
       </c>
       <c r="E27">
-        <v>0.02352941176470588</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="F27">
-        <v>44.67294117647059</v>
+        <v>16.04631507775524</v>
       </c>
       <c r="G27">
-        <v>9.263657236210216</v>
+        <v>8.450721942727577</v>
       </c>
       <c r="H27">
-        <v>0.0008708365320278873</v>
+        <v>1.312728023021639E-05</v>
       </c>
       <c r="I27">
-        <v>0.01028418684840092</v>
+        <v>0.0004352198291710203</v>
       </c>
       <c r="J27">
-        <v>0.005264661320569979</v>
+        <v>0.0003040001737523795</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>MX1/RSAD2</t>
+          <t>LY6E/PLSCR1/IFIT1/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GO:0060337</t>
+          <t>GO:0071346</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>type I interferon-mediated signaling pathway</t>
+          <t>cellular response to type II interferon</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>85/18986</t>
+          <t>98/18986</t>
         </is>
       </c>
       <c r="E28">
-        <v>0.02352941176470588</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="F28">
-        <v>44.67294117647059</v>
+        <v>26.72202674173117</v>
       </c>
       <c r="G28">
-        <v>9.263657236210216</v>
+        <v>9.98492324737645</v>
       </c>
       <c r="H28">
-        <v>0.0008708365320278873</v>
+        <v>1.435632471505819E-05</v>
       </c>
       <c r="I28">
-        <v>0.01028418684840092</v>
+        <v>0.0004583389594214875</v>
       </c>
       <c r="J28">
-        <v>0.005264661320569979</v>
+        <v>0.0003201488396496408</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/PARP14/NLRC5/STAT1</t>
         </is>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GO:0071357</t>
+          <t>GO:0002230</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cellular response to type I interferon</t>
+          <t>positive regulation of defense response to virus by host</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86/18986</t>
+          <t>33/18986</t>
         </is>
       </c>
       <c r="E29">
-        <v>0.02325581395348837</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F29">
-        <v>44.15348837209302</v>
+        <v>59.51724137931034</v>
       </c>
       <c r="G29">
-        <v>9.207403942162344</v>
+        <v>13.15895275605407</v>
       </c>
       <c r="H29">
-        <v>0.0008913201723437911</v>
+        <v>1.695028405017884E-05</v>
       </c>
       <c r="I29">
-        <v>0.01028418684840092</v>
+        <v>0.0005218266018305057</v>
       </c>
       <c r="J29">
-        <v>0.005264661320569979</v>
+        <v>0.0003644948299512141</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/DTX3L/STAT1</t>
         </is>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>GO:0045089</t>
+          <t>GO:0035456</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>positive regulation of innate immune response</t>
+          <t>response to interferon-beta</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>387/18986</t>
+          <t>34/18986</t>
         </is>
       </c>
       <c r="E30">
-        <v>0.007751937984496124</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="F30">
-        <v>14.71782945736434</v>
+        <v>57.76673427991886</v>
       </c>
       <c r="G30">
-        <v>6.258914941158253</v>
+        <v>12.9576229929848</v>
       </c>
       <c r="H30">
-        <v>0.0009065088711356432</v>
+        <v>1.857155252890555E-05</v>
       </c>
       <c r="I30">
-        <v>0.01028418684840092</v>
+        <v>0.0005520233889626408</v>
       </c>
       <c r="J30">
-        <v>0.005264661320569979</v>
+        <v>0.0003855872249195634</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>PARP9/RSAD2/NLRC5</t>
+          <t>PLSCR1/IFITM1/STAT1</t>
         </is>
       </c>
       <c r="L30">
@@ -1814,141 +1814,141 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GO:0045824</t>
+          <t>GO:0045089</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>negative regulation of innate immune response</t>
+          <t>positive regulation of innate immune response</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>6/29</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93/18986</t>
+          <t>387/18986</t>
         </is>
       </c>
       <c r="E31">
-        <v>0.02150537634408602</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="F31">
-        <v>40.83010752688172</v>
+        <v>10.15022721197541</v>
       </c>
       <c r="G31">
-        <v>8.839047255434298</v>
+        <v>7.113151493222838</v>
       </c>
       <c r="H31">
-        <v>0.001041196348982646</v>
+        <v>2.203299878248874E-05</v>
       </c>
       <c r="I31">
-        <v>0.01128716292384972</v>
+        <v>0.0006330814983501765</v>
       </c>
       <c r="J31">
-        <v>0.005778102920543771</v>
+        <v>0.0004422061510029318</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/DDX60/IRF7/PLSCR1/RSAD2/NLRC5</t>
         </is>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GO:1900182</t>
+          <t>GO:0050691</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>positive regulation of protein localization to nucleus</t>
+          <t>regulation of defense response to virus by host</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>94/18986</t>
+          <t>45/18986</t>
         </is>
       </c>
       <c r="E32">
-        <v>0.02127659574468085</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F32">
-        <v>40.39574468085106</v>
+        <v>43.64597701149425</v>
       </c>
       <c r="G32">
-        <v>8.789764460235091</v>
+        <v>11.20217538799797</v>
       </c>
       <c r="H32">
-        <v>0.001063532068812588</v>
+        <v>4.354456012774018E-05</v>
       </c>
       <c r="I32">
-        <v>0.01128716292384972</v>
+        <v>0.001172981588441001</v>
       </c>
       <c r="J32">
-        <v>0.005778102920543771</v>
+        <v>0.0008193252760877428</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>PARP9/DTX3L/STAT1</t>
         </is>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GO:0002833</t>
+          <t>GO:0060338</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>positive regulation of response to biotic stimulus</t>
+          <t>regulation of type I interferon-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>416/18986</t>
+          <t>45/18986</t>
         </is>
       </c>
       <c r="E33">
-        <v>0.007211538461538462</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F33">
-        <v>13.69182692307692</v>
+        <v>43.64597701149425</v>
       </c>
       <c r="G33">
-        <v>6.008524265094041</v>
+        <v>11.20217538799797</v>
       </c>
       <c r="H33">
-        <v>0.001117477243612926</v>
+        <v>4.354456012774018E-05</v>
       </c>
       <c r="I33">
-        <v>0.0114890629108954</v>
+        <v>0.001172981588441001</v>
       </c>
       <c r="J33">
-        <v>0.005881459176910136</v>
+        <v>0.0008193252760877428</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>PARP9/RSAD2/NLRC5</t>
+          <t>USP18/IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L33">
@@ -1958,189 +1958,189 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GO:0071346</t>
+          <t>GO:0046596</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cellular response to type II interferon</t>
+          <t>regulation of viral entry into host cell</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>98/18986</t>
+          <t>51/18986</t>
         </is>
       </c>
       <c r="E34">
-        <v>0.02040816326530612</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F34">
-        <v>38.7469387755102</v>
+        <v>38.51115618661257</v>
       </c>
       <c r="G34">
-        <v>8.600124778234933</v>
+        <v>10.49137422161421</v>
       </c>
       <c r="H34">
-        <v>0.001155179040975798</v>
+        <v>6.35128544158272E-05</v>
       </c>
       <c r="I34">
-        <v>0.01151678498427387</v>
+        <v>0.001659032742619486</v>
       </c>
       <c r="J34">
-        <v>0.005895650607850963</v>
+        <v>0.0011588310279379</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>PARP9/NLRC5</t>
+          <t>LY6E/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GO:0001960</t>
+          <t>GO:0052372</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>negative regulation of cytokine-mediated signaling pathway</t>
+          <t>modulation by symbiont of entry into host</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>103/18986</t>
+          <t>58/18986</t>
         </is>
       </c>
       <c r="E35">
-        <v>0.01941747572815534</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="F35">
-        <v>36.86601941747573</v>
+        <v>33.86325802615934</v>
       </c>
       <c r="G35">
-        <v>8.378557605839308</v>
+        <v>9.803739084660572</v>
       </c>
       <c r="H35">
-        <v>0.001274906999271588</v>
+        <v>9.343209852607423E-05</v>
       </c>
       <c r="I35">
-        <v>0.01233660008118683</v>
+        <v>0.00235312275876866</v>
       </c>
       <c r="J35">
-        <v>0.006315328788961424</v>
+        <v>0.001643651505697489</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>LY6E/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GO:0051099</t>
+          <t>GO:0046718</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>positive regulation of binding</t>
+          <t>symbiont entry into host cell</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>107/18986</t>
+          <t>159/18986</t>
         </is>
       </c>
       <c r="E36">
-        <v>0.01869158878504673</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="F36">
-        <v>35.48785046728972</v>
+        <v>16.47018000433745</v>
       </c>
       <c r="G36">
-        <v>8.212426341595151</v>
+        <v>7.66165977104828</v>
       </c>
       <c r="H36">
-        <v>0.001374809226442086</v>
+        <v>9.554442756021242E-05</v>
       </c>
       <c r="I36">
-        <v>0.01279769176338373</v>
+        <v>0.00235312275876866</v>
       </c>
       <c r="J36">
-        <v>0.006551369963658281</v>
+        <v>0.001643651505697489</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>LY6E/PLSCR1/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GO:0060761</t>
+          <t>GO:0035561</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>negative regulation of response to cytokine stimulus</t>
+          <t>regulation of chromatin binding</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>108/18986</t>
+          <t>10/18986</t>
         </is>
       </c>
       <c r="E37">
-        <v>0.01851851851851852</v>
+        <v>0.2</v>
       </c>
       <c r="F37">
-        <v>35.15925925925926</v>
+        <v>130.9379310344828</v>
       </c>
       <c r="G37">
-        <v>8.172318729193782</v>
+        <v>16.07507863808679</v>
       </c>
       <c r="H37">
-        <v>0.001400355329731958</v>
+        <v>0.0001006073123867336</v>
       </c>
       <c r="I37">
-        <v>0.01279769176338373</v>
+        <v>0.00240898620214901</v>
       </c>
       <c r="J37">
-        <v>0.006551369963658281</v>
+        <v>0.001682672008339521</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PARP9/DTX3L</t>
         </is>
       </c>
       <c r="L37">
@@ -2150,141 +2150,141 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GO:0034341</t>
+          <t>GO:0044409</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>response to type II interferon</t>
+          <t>symbiont entry into host</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>121/18986</t>
+          <t>164/18986</t>
         </is>
       </c>
       <c r="E38">
-        <v>0.01652892561983471</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="F38">
-        <v>31.38181818181818</v>
+        <v>15.96804037005887</v>
       </c>
       <c r="G38">
-        <v>7.696282590994478</v>
+        <v>7.529627297232117</v>
       </c>
       <c r="H38">
-        <v>0.001753114390124752</v>
+        <v>0.0001076987308689866</v>
       </c>
       <c r="I38">
-        <v>0.01547737916997649</v>
+        <v>0.002509089351596392</v>
       </c>
       <c r="J38">
-        <v>0.007923150430959008</v>
+        <v>0.001752593856530878</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>PARP9/NLRC5</t>
+          <t>LY6E/PLSCR1/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GO:1903829</t>
+          <t>GO:0044403</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>positive regulation of protein localization</t>
+          <t>biological process involved in symbiotic interaction</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3/10</t>
+          <t>5/29</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>497/18986</t>
+          <t>322/18986</t>
         </is>
       </c>
       <c r="E39">
-        <v>0.006036217303822937</v>
+        <v>0.01552795031055901</v>
       </c>
       <c r="F39">
-        <v>11.46036217303823</v>
+        <v>10.16598843435425</v>
       </c>
       <c r="G39">
-        <v>5.424643092032432</v>
+        <v>6.488202149774422</v>
       </c>
       <c r="H39">
-        <v>0.001865120512235661</v>
+        <v>0.0001156064852259631</v>
       </c>
       <c r="I39">
-        <v>0.01547737916997649</v>
+        <v>0.002622441849073163</v>
       </c>
       <c r="J39">
-        <v>0.007923150430959008</v>
+        <v>0.001831770347624678</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L/TGFB3</t>
+          <t>LY6E/PLSCR1/IFIT1/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GO:0002718</t>
+          <t>GO:0039530</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>regulation of cytokine production involved in immune response</t>
+          <t>MDA-5 signaling pathway</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>126/18986</t>
+          <t>11/18986</t>
         </is>
       </c>
       <c r="E40">
-        <v>0.01587301587301587</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F40">
-        <v>30.13650793650793</v>
+        <v>119.0344827586207</v>
       </c>
       <c r="G40">
-        <v>7.532773219426824</v>
+        <v>15.31559403644161</v>
       </c>
       <c r="H40">
-        <v>0.001898951012775226</v>
+        <v>0.0001228479760127466</v>
       </c>
       <c r="I40">
-        <v>0.01547737916997649</v>
+        <v>0.002715255264691989</v>
       </c>
       <c r="J40">
-        <v>0.007923150430959008</v>
+        <v>0.00189660033142486</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>RSAD2/TGFB3</t>
+          <t>DDX60/IRF7</t>
         </is>
       </c>
       <c r="L40">
@@ -2294,285 +2294,285 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GO:0002367</t>
+          <t>GO:0050688</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cytokine production involved in immune response</t>
+          <t>regulation of defense response to virus</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>127/18986</t>
+          <t>66/18986</t>
         </is>
       </c>
       <c r="E41">
-        <v>0.01574803149606299</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="F41">
-        <v>29.8992125984252</v>
+        <v>29.75862068965517</v>
       </c>
       <c r="G41">
-        <v>7.50121312845206</v>
+        <v>9.15374793395139</v>
       </c>
       <c r="H41">
-        <v>0.001928791933036584</v>
+        <v>0.0001374286756850899</v>
       </c>
       <c r="I41">
-        <v>0.01547737916997649</v>
+        <v>0.002961587961013687</v>
       </c>
       <c r="J41">
-        <v>0.007923150430959008</v>
+        <v>0.0020686632234703</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>RSAD2/TGFB3</t>
+          <t>PARP9/DTX3L/STAT1</t>
         </is>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GO:0002832</t>
+          <t>GO:0043903</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>negative regulation of response to biotic stimulus</t>
+          <t>regulation of biological process involved in symbiotic interaction</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>127/18986</t>
+          <t>69/18986</t>
         </is>
       </c>
       <c r="E42">
-        <v>0.01574803149606299</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="F42">
-        <v>29.8992125984252</v>
+        <v>28.46476761619191</v>
       </c>
       <c r="G42">
-        <v>7.50121312845206</v>
+        <v>8.939100847107019</v>
       </c>
       <c r="H42">
-        <v>0.001928791933036584</v>
+        <v>0.0001568686588525992</v>
       </c>
       <c r="I42">
-        <v>0.01547737916997649</v>
+        <v>0.003298067900754647</v>
       </c>
       <c r="J42">
-        <v>0.007923150430959008</v>
+        <v>0.002303693783406592</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>LY6E/IFITM1/HLA-DRB1</t>
         </is>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GO:0019079</t>
+          <t>GO:0050777</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>viral genome replication</t>
+          <t>negative regulation of immune response</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>130/18986</t>
+          <t>207/18986</t>
         </is>
       </c>
       <c r="E43">
-        <v>0.01538461538461539</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="F43">
-        <v>29.20923076923077</v>
+        <v>12.65100782941862</v>
       </c>
       <c r="G43">
-        <v>7.408684487350387</v>
+        <v>6.592223612737284</v>
       </c>
       <c r="H43">
-        <v>0.002019658351497161</v>
+        <v>0.0002632562806304326</v>
       </c>
       <c r="I43">
-        <v>0.01568790126346676</v>
+        <v>0.005403021759605545</v>
       </c>
       <c r="J43">
-        <v>0.008030920499615042</v>
+        <v>0.003773999812546552</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>MX1/RSAD2</t>
+          <t>USP18/PARP14/NLRC5/HLA-DRB1</t>
         </is>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GO:0000077</t>
+          <t>GO:0051098</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DNA damage checkpoint signaling</t>
+          <t>regulation of binding</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>131/18986</t>
+          <t>219/18986</t>
         </is>
       </c>
       <c r="E44">
-        <v>0.01526717557251908</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="F44">
-        <v>28.98625954198473</v>
+        <v>11.95780192095733</v>
       </c>
       <c r="G44">
-        <v>7.378536020805907</v>
+        <v>6.379219864681005</v>
       </c>
       <c r="H44">
-        <v>0.002050394390057966</v>
+        <v>0.0003261965247266855</v>
       </c>
       <c r="I44">
-        <v>0.01568790126346676</v>
+        <v>0.006539102425916346</v>
       </c>
       <c r="J44">
-        <v>0.008030920499615042</v>
+        <v>0.004567549868877947</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>PARP9/DTX3L/IFIT1/HDAC4</t>
         </is>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GO:0031570</t>
+          <t>GO:0045824</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DNA integrity checkpoint signaling</t>
+          <t>negative regulation of innate immune response</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>140/18986</t>
+          <t>93/18986</t>
         </is>
       </c>
       <c r="E45">
-        <v>0.01428571428571429</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F45">
-        <v>27.12285714285714</v>
+        <v>21.11902113459399</v>
       </c>
       <c r="G45">
-        <v>7.121607999370635</v>
+        <v>7.607068963975722</v>
       </c>
       <c r="H45">
-        <v>0.002337043312624069</v>
+        <v>0.0003790756634381863</v>
       </c>
       <c r="I45">
-        <v>0.01747471022393906</v>
+        <v>0.007426436860993559</v>
       </c>
       <c r="J45">
-        <v>0.008945620335403135</v>
+        <v>0.005187351183890971</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>USP18/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GO:1900180</t>
+          <t>GO:0045655</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>regulation of protein localization to nucleus</t>
+          <t>regulation of monocyte differentiation</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>146/18986</t>
+          <t>20/18986</t>
         </is>
       </c>
       <c r="E46">
-        <v>0.0136986301369863</v>
+        <v>0.1</v>
       </c>
       <c r="F46">
-        <v>26.00821917808219</v>
+        <v>65.46896551724139</v>
       </c>
       <c r="G46">
-        <v>6.963405890107834</v>
+        <v>11.2822916161771</v>
       </c>
       <c r="H46">
-        <v>0.002538120336950602</v>
+        <v>0.0004207798509265446</v>
       </c>
       <c r="I46">
-        <v>0.01855647979681662</v>
+        <v>0.007885048510840901</v>
       </c>
       <c r="J46">
-        <v>0.009499397752329736</v>
+        <v>0.005507690497253627</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>IRF7/HLA-DRB1</t>
         </is>
       </c>
       <c r="L46">
@@ -2582,45 +2582,45 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GO:0042770</t>
+          <t>GO:0060340</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>signal transduction in response to DNA damage</t>
+          <t>positive regulation of type I interferon-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>194/18986</t>
+          <t>20/18986</t>
         </is>
       </c>
       <c r="E47">
-        <v>0.01030927835051546</v>
+        <v>0.1</v>
       </c>
       <c r="F47">
-        <v>19.57319587628866</v>
+        <v>65.46896551724139</v>
       </c>
       <c r="G47">
-        <v>5.969032820929296</v>
+        <v>11.2822916161771</v>
       </c>
       <c r="H47">
-        <v>0.004428832305932842</v>
+        <v>0.0004207798509265446</v>
       </c>
       <c r="I47">
-        <v>0.03162821516078533</v>
+        <v>0.007885048510840901</v>
       </c>
       <c r="J47">
-        <v>0.01619105559342714</v>
+        <v>0.005507690497253627</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>IRF7/NLRC5</t>
         </is>
       </c>
       <c r="L47">
@@ -2630,137 +2630,137 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GO:0002700</t>
+          <t>GO:0001960</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>regulation of production of molecular mediator of immune response</t>
+          <t>negative regulation of cytokine-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>196/18986</t>
+          <t>103/18986</t>
         </is>
       </c>
       <c r="E48">
-        <v>0.01020408163265306</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="F48">
-        <v>19.3734693877551</v>
+        <v>19.0686307331771</v>
       </c>
       <c r="G48">
-        <v>5.935520108529322</v>
+        <v>7.191638567191855</v>
       </c>
       <c r="H48">
-        <v>0.004518316451540762</v>
+        <v>0.0005113528319867518</v>
       </c>
       <c r="I48">
-        <v>0.03162821516078533</v>
+        <v>0.009378428535586809</v>
       </c>
       <c r="J48">
-        <v>0.01619105559342714</v>
+        <v>0.006550813435530169</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>RSAD2/TGFB3</t>
+          <t>USP18/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GO:0000075</t>
+          <t>GO:0060761</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cell cycle checkpoint signaling</t>
+          <t>negative regulation of response to cytokine stimulus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>203/18986</t>
+          <t>108/18986</t>
         </is>
       </c>
       <c r="E49">
-        <v>0.009852216748768473</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="F49">
-        <v>18.70541871921182</v>
+        <v>18.18582375478927</v>
       </c>
       <c r="G49">
-        <v>5.822033587087581</v>
+        <v>7.005251554856437</v>
       </c>
       <c r="H49">
-        <v>0.004838141118874805</v>
+        <v>0.0005872862862828677</v>
       </c>
       <c r="I49">
-        <v>0.03316142558562106</v>
+        <v>0.01054668289116316</v>
       </c>
       <c r="J49">
-        <v>0.01697593375043791</v>
+        <v>0.007366836748986849</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>USP18/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GO:0050777</t>
+          <t>GO:0060339</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>negative regulation of immune response</t>
+          <t>negative regulation of type I interferon-mediated signaling pathway</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>207/18986</t>
+          <t>24/18986</t>
         </is>
       </c>
       <c r="E50">
-        <v>0.00966183574879227</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F50">
-        <v>18.343961352657</v>
+        <v>54.55747126436781</v>
       </c>
       <c r="G50">
-        <v>5.759704515107479</v>
+        <v>10.26840779763781</v>
       </c>
       <c r="H50">
-        <v>0.005025510708907673</v>
+        <v>0.0006089267563398674</v>
       </c>
       <c r="I50">
-        <v>0.03325314043440717</v>
+        <v>0.01071214008091767</v>
       </c>
       <c r="J50">
-        <v>0.01702288424093792</v>
+        <v>0.007482408262651003</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2774,285 +2774,285 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GO:0034356</t>
+          <t>GO:0032727</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NAD biosynthesis via nicotinamide riboside salvage pathway</t>
+          <t>positive regulation of interferon-alpha production</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10/18986</t>
+          <t>25/18986</t>
         </is>
       </c>
       <c r="E51">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F51">
-        <v>189.86</v>
+        <v>52.37517241379311</v>
       </c>
       <c r="G51">
-        <v>13.71325697506976</v>
+        <v>10.05338170855927</v>
       </c>
       <c r="H51">
-        <v>0.005255815509389583</v>
+        <v>0.0006612504380367788</v>
       </c>
       <c r="I51">
-        <v>0.03325314043440717</v>
+        <v>0.01096149764591737</v>
       </c>
       <c r="J51">
-        <v>0.01702288424093792</v>
+        <v>0.007656584019373227</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>PARP9</t>
+          <t>IRF7/STAT1</t>
         </is>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GO:1902965</t>
+          <t>GO:0042531</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>regulation of protein localization to early endosome</t>
+          <t>positive regulation of tyrosine phosphorylation of STAT protein</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10/18986</t>
+          <t>25/18986</t>
         </is>
       </c>
       <c r="E52">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F52">
-        <v>189.86</v>
+        <v>52.37517241379311</v>
       </c>
       <c r="G52">
-        <v>13.71325697506976</v>
+        <v>10.05338170855927</v>
       </c>
       <c r="H52">
-        <v>0.005255815509389583</v>
+        <v>0.0006612504380367788</v>
       </c>
       <c r="I52">
-        <v>0.03325314043440717</v>
+        <v>0.01096149764591737</v>
       </c>
       <c r="J52">
-        <v>0.01702288424093792</v>
+        <v>0.007656584019373227</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>DTX3L</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GO:1902966</t>
+          <t>GO:0046597</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>positive regulation of protein localization to early endosome</t>
+          <t>negative regulation of viral entry into host cell</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10/18986</t>
+          <t>25/18986</t>
         </is>
       </c>
       <c r="E53">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F53">
-        <v>189.86</v>
+        <v>52.37517241379311</v>
       </c>
       <c r="G53">
-        <v>13.71325697506976</v>
+        <v>10.05338170855927</v>
       </c>
       <c r="H53">
-        <v>0.005255815509389583</v>
+        <v>0.0006612504380367788</v>
       </c>
       <c r="I53">
-        <v>0.03325314043440717</v>
+        <v>0.01096149764591737</v>
       </c>
       <c r="J53">
-        <v>0.01702288424093792</v>
+        <v>0.007656584019373227</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>DTX3L</t>
+          <t>LY6E/IFITM1</t>
         </is>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GO:0051098</t>
+          <t>GO:0043393</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>regulation of binding</t>
+          <t>regulation of protein binding</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>219/18986</t>
+          <t>116/18986</t>
         </is>
       </c>
       <c r="E54">
-        <v>0.0091324200913242</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="F54">
-        <v>17.33881278538813</v>
+        <v>16.93162901307967</v>
       </c>
       <c r="G54">
-        <v>5.582748863911744</v>
+        <v>6.731668545015917</v>
       </c>
       <c r="H54">
-        <v>0.005607609270322046</v>
+        <v>0.0007231645472501667</v>
       </c>
       <c r="I54">
-        <v>0.03480949905539533</v>
+        <v>0.01176165735338951</v>
       </c>
       <c r="J54">
-        <v>0.01781961237838187</v>
+        <v>0.00821549396280229</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>DTX3L/IFIT1/HDAC4</t>
         </is>
       </c>
       <c r="L54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GO:0034154</t>
+          <t>GO:0002832</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>toll-like receptor 7 signaling pathway</t>
+          <t>negative regulation of response to biotic stimulus</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11/18986</t>
+          <t>127/18986</t>
         </is>
       </c>
       <c r="E55">
-        <v>0.09090909090909091</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="F55">
-        <v>172.6</v>
+        <v>15.46510996470269</v>
       </c>
       <c r="G55">
-        <v>13.06849869110625</v>
+        <v>6.397109201766707</v>
       </c>
       <c r="H55">
-        <v>0.005780027242363484</v>
+        <v>0.0009405179288673847</v>
       </c>
       <c r="I55">
-        <v>0.03521535116180715</v>
+        <v>0.01495625151043578</v>
       </c>
       <c r="J55">
-        <v>0.0180273754147789</v>
+        <v>0.01044691154471763</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>RSAD2</t>
+          <t>USP18/PARP14/NLRC5</t>
         </is>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GO:0002440</t>
+          <t>GO:0042509</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>production of molecular mediator of immune response</t>
+          <t>regulation of tyrosine phosphorylation of STAT protein</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>230/18986</t>
+          <t>30/18986</t>
         </is>
       </c>
       <c r="E56">
-        <v>0.008695652173913044</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F56">
-        <v>16.50956521739131</v>
+        <v>43.64597701149425</v>
       </c>
       <c r="G56">
-        <v>5.432458210815996</v>
+        <v>9.142918331067145</v>
       </c>
       <c r="H56">
-        <v>0.00616732777030663</v>
+        <v>0.0009542851891809373</v>
       </c>
       <c r="I56">
-        <v>0.03575884174123588</v>
+        <v>0.01495625151043578</v>
       </c>
       <c r="J56">
-        <v>0.01830559807582063</v>
+        <v>0.01044691154471763</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>RSAD2/TGFB3</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L56">
@@ -3062,765 +3062,765 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GO:0010936</t>
+          <t>GO:0032607</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>negative regulation of macrophage cytokine production</t>
+          <t>interferon-alpha production</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12/18986</t>
+          <t>31/18986</t>
         </is>
       </c>
       <c r="E57">
-        <v>0.08333333333333333</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F57">
-        <v>158.2166666666666</v>
+        <v>42.23804226918798</v>
       </c>
       <c r="G57">
-        <v>12.50583584896565</v>
+        <v>8.987449986484465</v>
       </c>
       <c r="H57">
-        <v>0.006303990337360732</v>
+        <v>0.001019132896362124</v>
       </c>
       <c r="I57">
-        <v>0.03575884174123588</v>
+        <v>0.01495708681068207</v>
       </c>
       <c r="J57">
-        <v>0.01830559807582063</v>
+        <v>0.01044749500025662</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>TGFB3</t>
+          <t>IRF7/STAT1</t>
         </is>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GO:0034163</t>
+          <t>GO:0032647</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>regulation of toll-like receptor 9 signaling pathway</t>
+          <t>regulation of interferon-alpha production</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12/18986</t>
+          <t>31/18986</t>
         </is>
       </c>
       <c r="E58">
-        <v>0.08333333333333333</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F58">
-        <v>158.2166666666666</v>
+        <v>42.23804226918798</v>
       </c>
       <c r="G58">
-        <v>12.50583584896565</v>
+        <v>8.987449986484465</v>
       </c>
       <c r="H58">
-        <v>0.006303990337360732</v>
+        <v>0.001019132896362124</v>
       </c>
       <c r="I58">
-        <v>0.03575884174123588</v>
+        <v>0.01495708681068207</v>
       </c>
       <c r="J58">
-        <v>0.01830559807582063</v>
+        <v>0.01044749500025662</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>RSAD2</t>
+          <t>IRF7/STAT1</t>
         </is>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GO:2000644</t>
+          <t>GO:1903901</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>regulation of receptor catabolic process</t>
+          <t>negative regulation of viral life cycle</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12/18986</t>
+          <t>31/18986</t>
         </is>
       </c>
       <c r="E59">
-        <v>0.08333333333333333</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="F59">
-        <v>158.2166666666666</v>
+        <v>42.23804226918798</v>
       </c>
       <c r="G59">
-        <v>12.50583584896565</v>
+        <v>8.987449986484465</v>
       </c>
       <c r="H59">
-        <v>0.006303990337360732</v>
+        <v>0.001019132896362124</v>
       </c>
       <c r="I59">
-        <v>0.03575884174123588</v>
+        <v>0.01495708681068207</v>
       </c>
       <c r="J59">
-        <v>0.01830559807582063</v>
+        <v>0.01044749500025662</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>DTX3L</t>
+          <t>LY6E/IFITM1</t>
         </is>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>GO:0035745</t>
+          <t>GO:0031348</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>T-helper 2 cell cytokine production</t>
+          <t>negative regulation of defense response</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>13/18986</t>
+          <t>297/18986</t>
         </is>
       </c>
       <c r="E60">
-        <v>0.07692307692307693</v>
+        <v>0.01346801346801347</v>
       </c>
       <c r="F60">
-        <v>146.0461538461539</v>
+        <v>8.817369093231163</v>
       </c>
       <c r="G60">
-        <v>12.00916619023979</v>
+        <v>5.310865522889178</v>
       </c>
       <c r="H60">
-        <v>0.006827704899215026</v>
+        <v>0.001023744920916754</v>
       </c>
       <c r="I60">
-        <v>0.03682483462035645</v>
+        <v>0.01495708681068207</v>
       </c>
       <c r="J60">
-        <v>0.01885129911776366</v>
+        <v>0.01044749500025662</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>RSAD2</t>
+          <t>USP18/PARP14/NLRC5/HLA-DRB1</t>
         </is>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>GO:1905668</t>
+          <t>GO:0007259</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>positive regulation of protein localization to endosome</t>
+          <t>cell surface receptor signaling pathway via JAK-STAT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>13/18986</t>
+          <t>132/18986</t>
         </is>
       </c>
       <c r="E61">
-        <v>0.07692307692307693</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="F61">
-        <v>146.0461538461539</v>
+        <v>14.87931034482759</v>
       </c>
       <c r="G61">
-        <v>12.00916619023979</v>
+        <v>6.258533708413999</v>
       </c>
       <c r="H61">
-        <v>0.006827704899215026</v>
+        <v>0.001051592607308817</v>
       </c>
       <c r="I61">
-        <v>0.03682483462035645</v>
+        <v>0.01510788045833667</v>
       </c>
       <c r="J61">
-        <v>0.01885129911776366</v>
+        <v>0.01055282405930953</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>DTX3L</t>
+          <t>PARP9/PARP14/STAT1</t>
         </is>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GO:2000551</t>
+          <t>GO:0007260</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>regulation of T-helper 2 cell cytokine production</t>
+          <t>tyrosine phosphorylation of STAT protein</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13/18986</t>
+          <t>35/18986</t>
         </is>
       </c>
       <c r="E62">
-        <v>0.07692307692307693</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="F62">
-        <v>146.0461538461539</v>
+        <v>37.41083743842364</v>
       </c>
       <c r="G62">
-        <v>12.00916619023979</v>
+        <v>8.432728513450916</v>
       </c>
       <c r="H62">
-        <v>0.006827704899215026</v>
+        <v>0.001299124962899</v>
       </c>
       <c r="I62">
-        <v>0.03682483462035645</v>
+        <v>0.01835812652490063</v>
       </c>
       <c r="J62">
-        <v>0.01885129911776366</v>
+        <v>0.01282311438789005</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>RSAD2</t>
+          <t>PARP9/PARP14</t>
         </is>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GO:1905666</t>
+          <t>GO:0030224</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>regulation of protein localization to endosome</t>
+          <t>monocyte differentiation</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>14/18986</t>
+          <t>36/18986</t>
         </is>
       </c>
       <c r="E63">
-        <v>0.07142857142857142</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="F63">
-        <v>135.6142857142857</v>
+        <v>36.37164750957854</v>
       </c>
       <c r="G63">
-        <v>11.56648971089207</v>
+        <v>8.308477083894395</v>
       </c>
       <c r="H63">
-        <v>0.007351171032720871</v>
+        <v>0.001374243268061326</v>
       </c>
       <c r="I63">
-        <v>0.03900863338330914</v>
+        <v>0.01910641446885262</v>
       </c>
       <c r="J63">
-        <v>0.01996922521621968</v>
+        <v>0.01334579200901661</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>DTX3L</t>
+          <t>IRF7/HLA-DRB1</t>
         </is>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GO:0034616</t>
+          <t>GO:0097696</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>response to laminar fluid shear stress</t>
+          <t>cell surface receptor signaling pathway via STAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>16/18986</t>
+          <t>160/18986</t>
         </is>
       </c>
       <c r="E64">
-        <v>0.0625</v>
+        <v>0.01875</v>
       </c>
       <c r="F64">
-        <v>118.6625</v>
+        <v>12.27543103448276</v>
       </c>
       <c r="G64">
-        <v>10.80854817190547</v>
+        <v>5.60187755400569</v>
       </c>
       <c r="H64">
-        <v>0.008397358433672064</v>
+        <v>0.001827198624926733</v>
       </c>
       <c r="I64">
-        <v>0.04250355268735552</v>
+        <v>0.02500071769344197</v>
       </c>
       <c r="J64">
-        <v>0.02175833764190332</v>
+        <v>0.01746295093497229</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>TGFB3</t>
+          <t>PARP9/PARP14/STAT1</t>
         </is>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GO:0051444</t>
+          <t>GO:0095500</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>negative regulation of ubiquitin-protein transferase activity</t>
+          <t>acetylcholine receptor signaling pathway</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>16/18986</t>
+          <t>45/18986</t>
         </is>
       </c>
       <c r="E65">
-        <v>0.0625</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="F65">
-        <v>118.6625</v>
+        <v>29.09731800766284</v>
       </c>
       <c r="G65">
-        <v>10.80854817190547</v>
+        <v>7.380557471326282</v>
       </c>
       <c r="H65">
-        <v>0.008397358433672064</v>
+        <v>0.002141222103871901</v>
       </c>
       <c r="I65">
-        <v>0.04250355268735552</v>
+        <v>0.02883958521152467</v>
       </c>
       <c r="J65">
-        <v>0.02175833764190332</v>
+        <v>0.02014439216142644</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>DTX3L</t>
+          <t>LY6E/CHRNB1</t>
         </is>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>GO:1902946</t>
+          <t>GO:1905145</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>protein localization to early endosome</t>
+          <t>cellular response to acetylcholine</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16/18986</t>
+          <t>47/18986</t>
         </is>
       </c>
       <c r="E66">
-        <v>0.0625</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="F66">
-        <v>118.6625</v>
+        <v>27.8591342626559</v>
       </c>
       <c r="G66">
-        <v>10.80854817190547</v>
+        <v>7.210774458672276</v>
       </c>
       <c r="H66">
-        <v>0.008397358433672064</v>
+        <v>0.002333625324592369</v>
       </c>
       <c r="I66">
-        <v>0.04250355268735552</v>
+        <v>0.03094746199690188</v>
       </c>
       <c r="J66">
-        <v>0.02175833764190332</v>
+        <v>0.02161673984885563</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>DTX3L</t>
+          <t>LY6E/CHRNB1</t>
         </is>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GO:0050708</t>
+          <t>GO:0002753</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>regulation of protein secretion</t>
+          <t>cytoplasmic pattern recognition receptor signaling pathway</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>272/18986</t>
+          <t>178/18986</t>
         </is>
       </c>
       <c r="E67">
-        <v>0.007352941176470588</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="F67">
-        <v>13.96029411764706</v>
+        <v>11.03409531189461</v>
       </c>
       <c r="G67">
-        <v>4.942184584796678</v>
+        <v>5.260613676874406</v>
       </c>
       <c r="H67">
-        <v>0.008529862841030536</v>
+        <v>0.002474692621956259</v>
       </c>
       <c r="I67">
-        <v>0.04252007385907645</v>
+        <v>0.03232098545645901</v>
       </c>
       <c r="J67">
-        <v>0.02176679512862657</v>
+        <v>0.02257614321784657</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>RSAD2/TGFB3</t>
+          <t>DDX60/IRF7/RSAD2</t>
         </is>
       </c>
       <c r="L67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GO:0002830</t>
+          <t>GO:1905144</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>positive regulation of type 2 immune response</t>
+          <t>response to acetylcholine</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>18/18986</t>
+          <t>50/18986</t>
         </is>
       </c>
       <c r="E68">
-        <v>0.05555555555555555</v>
+        <v>0.04</v>
       </c>
       <c r="F68">
-        <v>105.4777777777778</v>
+        <v>26.18758620689655</v>
       </c>
       <c r="G68">
-        <v>10.18010772361101</v>
+        <v>6.975043561260457</v>
       </c>
       <c r="H68">
-        <v>0.009442553377795426</v>
+        <v>0.002637000073733603</v>
       </c>
       <c r="I68">
-        <v>0.04576216064611772</v>
+        <v>0.03392677706803531</v>
       </c>
       <c r="J68">
-        <v>0.02342647801432998</v>
+        <v>0.02369778542302625</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>RSAD2</t>
+          <t>LY6E/CHRNB1</t>
         </is>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>GO:1901988</t>
+          <t>GO:0062207</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>negative regulation of cell cycle phase transition</t>
+          <t>regulation of pattern recognition receptor signaling pathway</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>3/29</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>287/18986</t>
+          <t>184/18986</t>
         </is>
       </c>
       <c r="E69">
-        <v>0.006968641114982578</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="F69">
-        <v>13.23066202090592</v>
+        <v>10.67428785607196</v>
       </c>
       <c r="G69">
-        <v>4.792749026058305</v>
+        <v>5.157573046068975</v>
       </c>
       <c r="H69">
-        <v>0.009458440498285731</v>
+        <v>0.002718261365288423</v>
       </c>
       <c r="I69">
-        <v>0.04576216064611772</v>
+        <v>0.03445796024821501</v>
       </c>
       <c r="J69">
-        <v>0.02342647801432998</v>
+        <v>0.02406881580410182</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>PARP9/DTX3L</t>
+          <t>DDX60/IRF7/RSAD2</t>
         </is>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GO:0035743</t>
+          <t>GO:0098926</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CD4-positive, alpha-beta T cell cytokine production</t>
+          <t>postsynaptic signal transduction</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19/18986</t>
+          <t>52/18986</t>
         </is>
       </c>
       <c r="E70">
-        <v>0.05263157894736842</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F70">
-        <v>99.92631578947368</v>
+        <v>25.18037135278515</v>
       </c>
       <c r="G70">
-        <v>9.903581472164632</v>
+        <v>6.829091731092436</v>
       </c>
       <c r="H70">
-        <v>0.009964778940122487</v>
+        <v>0.002849028693162042</v>
       </c>
       <c r="I70">
-        <v>0.04680969106571474</v>
+        <v>0.03559221352906783</v>
       </c>
       <c r="J70">
-        <v>0.02396272778919968</v>
+        <v>0.02486108943537281</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>RSAD2</t>
+          <t>LY6E/CHRNB1</t>
         </is>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GO:0097094</t>
+          <t>GO:0002697</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>craniofacial suture morphogenesis</t>
+          <t>regulation of immune effector process</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>19/18986</t>
+          <t>410/18986</t>
         </is>
       </c>
       <c r="E71">
-        <v>0.05263157894736842</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="F71">
-        <v>99.92631578947368</v>
+        <v>6.387216148023549</v>
       </c>
       <c r="G71">
-        <v>9.903581472164632</v>
+        <v>4.313201252381</v>
       </c>
       <c r="H71">
-        <v>0.009964778940122487</v>
+        <v>0.003319369368981871</v>
       </c>
       <c r="I71">
-        <v>0.04680969106571474</v>
+        <v>0.04087566280089104</v>
       </c>
       <c r="J71">
-        <v>0.02396272778919968</v>
+        <v>0.02855156810612978</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>TGFB3</t>
+          <t>DDX60/RSAD2/TGFB3/HLA-DRB1</t>
         </is>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GO:0031348</t>
+          <t>GO:0043462</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>negative regulation of defense response</t>
+          <t>regulation of ATP-dependent activity</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2/29</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>297/18986</t>
+          <t>63/18986</t>
         </is>
       </c>
       <c r="E72">
-        <v>0.006734006734006734</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="F72">
-        <v>12.78518518518518</v>
+        <v>20.78379857690202</v>
       </c>
       <c r="G72">
-        <v>4.699206919739619</v>
+        <v>6.151831852463864</v>
       </c>
       <c r="H72">
-        <v>0.01010178743363449</v>
+        <v>0.004152826533291576</v>
       </c>
       <c r="I72">
-        <v>0.04680969106571474</v>
+        <v>0.04989680895652648</v>
       </c>
       <c r="J72">
-        <v>0.02396272778919968</v>
+        <v>0.03485282051915148</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>USP18/NLRC5</t>
+          <t>PLSCR1/IFIT1</t>
         </is>
       </c>
       <c r="L72">
@@ -3830,97 +3830,49 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GO:0034162</t>
+          <t>GO:0032102</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>toll-like receptor 9 signaling pathway</t>
+          <t>negative regulation of response to external stimulus</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>4/29</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>20/18986</t>
+          <t>437/18986</t>
         </is>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0.009153318077803204</v>
       </c>
       <c r="F73">
-        <v>94.93000000000001</v>
+        <v>5.992582656040401</v>
       </c>
       <c r="G73">
-        <v>9.647935956865759</v>
+        <v>4.129763924713186</v>
       </c>
       <c r="H73">
-        <v>0.01048675670205634</v>
+        <v>0.004167714901241191</v>
       </c>
       <c r="I73">
-        <v>0.04726223225995256</v>
+        <v>0.04989680895652648</v>
       </c>
       <c r="J73">
-        <v>0.02419439181440541</v>
+        <v>0.03485282051915148</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>RSAD2</t>
+          <t>USP18/PARP14/NLRC5/HLA-DRB1</t>
         </is>
       </c>
       <c r="L73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>GO:0060340</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>positive regulation of type I interferon-mediated signaling pathway</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>1/10</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>20/18986</t>
-        </is>
-      </c>
-      <c r="E74">
-        <v>0.05</v>
-      </c>
-      <c r="F74">
-        <v>94.93000000000001</v>
-      </c>
-      <c r="G74">
-        <v>9.647935956865759</v>
-      </c>
-      <c r="H74">
-        <v>0.01048675670205634</v>
-      </c>
-      <c r="I74">
-        <v>0.04726223225995256</v>
-      </c>
-      <c r="J74">
-        <v>0.02419439181440541</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>NLRC5</t>
-        </is>
-      </c>
-      <c r="L74">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
